--- a/StoreData.xlsx
+++ b/StoreData.xlsx
@@ -33,63 +33,42 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Ap #379-6972 Diam Ave</t>
-  </si>
-  <si>
     <t>Valencia</t>
   </si>
   <si>
     <t>AL</t>
   </si>
   <si>
-    <t>566-1814 Lorem, Avenue</t>
-  </si>
-  <si>
     <t>Tustin</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
-    <t>661-1430 Tristique Road</t>
-  </si>
-  <si>
     <t>Yuma</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>121-8376 Montes, Av.</t>
-  </si>
-  <si>
     <t>Nashua</t>
   </si>
   <si>
     <t>NE</t>
   </si>
   <si>
-    <t>845-1106 Ante Ave</t>
-  </si>
-  <si>
     <t>Oxford</t>
   </si>
   <si>
     <t>MN</t>
   </si>
   <si>
-    <t>Ap #927-8919 Augue St.</t>
-  </si>
-  <si>
     <t>Springdale</t>
   </si>
   <si>
     <t>WV</t>
   </si>
   <si>
-    <t>711-5803 Non Av.</t>
-  </si>
-  <si>
     <t>Norman</t>
   </si>
   <si>
@@ -105,24 +84,15 @@
     <t>MS</t>
   </si>
   <si>
-    <t>546-9789 Orci. Ave</t>
-  </si>
-  <si>
     <t>Hartford</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
-    <t>564-2992 Nullam Ave</t>
-  </si>
-  <si>
     <t>Chino Hills</t>
   </si>
   <si>
-    <t>860-8451 Etiam St.</t>
-  </si>
-  <si>
     <t>Saint Cloud</t>
   </si>
   <si>
@@ -138,73 +108,103 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Ap #740-5462 Scelerisque Ave</t>
-  </si>
-  <si>
     <t>Murray</t>
   </si>
   <si>
     <t>WY</t>
   </si>
   <si>
-    <t>451-7217 Metus St.</t>
-  </si>
-  <si>
     <t>Rosemead</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>P.O. Box 539, 8876 Sed St.</t>
-  </si>
-  <si>
     <t>Poughkeepsie</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
-    <t>783-8952 Non, Av.</t>
-  </si>
-  <si>
     <t>Spokane</t>
   </si>
   <si>
-    <t>395-7141 Ante. Rd.</t>
-  </si>
-  <si>
     <t>Lynchburg</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>396-842 Duis St.</t>
-  </si>
-  <si>
     <t>San Francisco</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>343-8764 Aliquam Street</t>
-  </si>
-  <si>
     <t>San Gabriel</t>
   </si>
   <si>
     <t>NJ</t>
   </si>
   <si>
-    <t>P.O. Box 473, 8360 Sed Rd.</t>
-  </si>
-  <si>
     <t>Johnstown</t>
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>6972 Diam Ave</t>
+  </si>
+  <si>
+    <t>1430 Tristique Road</t>
+  </si>
+  <si>
+    <t>1106 Ante Ave</t>
+  </si>
+  <si>
+    <t>8376 Montes Av.</t>
+  </si>
+  <si>
+    <t>8919 Augue St.</t>
+  </si>
+  <si>
+    <t>5803 Non Av.</t>
+  </si>
+  <si>
+    <t>9789 Orci. Ave</t>
+  </si>
+  <si>
+    <t>2992 Nullam Ave</t>
+  </si>
+  <si>
+    <t>8451 Etiam St.</t>
+  </si>
+  <si>
+    <t>5462 Scelerisque Ave</t>
+  </si>
+  <si>
+    <t>7217 Metus St.</t>
+  </si>
+  <si>
+    <t>8876 Sed St.</t>
+  </si>
+  <si>
+    <t>8952 Non Av.</t>
+  </si>
+  <si>
+    <t>7141 Ante. Rd.</t>
+  </si>
+  <si>
+    <t>842 Duis St.</t>
+  </si>
+  <si>
+    <t>8764 Aliquam Street</t>
+  </si>
+  <si>
+    <t>8360 Sed Rd.</t>
+  </si>
+  <si>
+    <t>1814 Lorem Avenue</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1178,13 +1180,13 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="8">
         <v>75718</v>
@@ -1192,27 +1194,27 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="8">
-        <v>1294</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8">
         <v>99865</v>
@@ -1220,13 +1222,13 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8">
         <v>67278</v>
@@ -1234,13 +1236,13 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8">
         <v>30539</v>
@@ -1248,13 +1250,13 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8">
         <v>47914</v>
@@ -1262,13 +1264,13 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8">
         <v>99939</v>
@@ -1276,13 +1278,13 @@
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8">
         <v>38373</v>
@@ -1290,13 +1292,13 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8">
         <v>41671</v>
@@ -1304,13 +1306,13 @@
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8">
         <v>91429</v>
@@ -1318,13 +1320,13 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8">
         <v>14056</v>
@@ -1332,13 +1334,13 @@
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" s="8">
         <v>42522</v>
@@ -1346,13 +1348,13 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8">
         <v>77298</v>
@@ -1360,13 +1362,13 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8">
         <v>47189</v>
@@ -1374,13 +1376,13 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8">
         <v>18795</v>
@@ -1388,13 +1390,13 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="8">
         <v>35473</v>
@@ -1402,27 +1404,27 @@
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D18" s="8">
-        <v>528</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D19" s="8">
         <v>25251</v>
@@ -1430,13 +1432,13 @@
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8">
         <v>41542</v>
@@ -1444,13 +1446,13 @@
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D21" s="11">
         <v>88804</v>
